--- a/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_PCN\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_PUN\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06235824-37AE-4922-B5B1-30FAB1EA6E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0BE45C-4359-4E63-8307-25FF7A7C3C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="2955" windowWidth="21600" windowHeight="10425" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>Ed_Wm2</t>
   </si>
   <si>
-    <t>Vww_lpdp</t>
-  </si>
-  <si>
-    <t>Vw_lpdp</t>
+    <t>Vww_ldp</t>
+  </si>
+  <si>
+    <t>Vw_ldp</t>
   </si>
   <si>
     <t>Qcre_Wm2</t>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,8 +569,8 @@
     <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
     <col min="12" max="13" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="1"/>
+    <col min="14" max="15" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,8 +1531,8 @@
     <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1578,8 +1578,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="7">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="7">
         <v>30</v>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/SURB_2040_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\SURB_2040_PUN\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0BE45C-4359-4E63-8307-25FF7A7C3C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F27B8C-6C30-4E34-A825-E41E641BD1BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9">
         <v>70</v>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
